--- a/biology/Zoologie/Hirondelle_des_arbres/Hirondelle_des_arbres.xlsx
+++ b/biology/Zoologie/Hirondelle_des_arbres/Hirondelle_des_arbres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrochelidon nigricans
 L'Hirondelle des arbres (Petrochelidon nigricans) est une espèce de passereaux de la famille des Hirundinidae. Elle est parfois classée dans le genre Hirundo.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur l'Indonésie, le Timor oriental, la Papouasie-Nouvelle-Guinée, les Iles Salomon et l'Australie. C'est une espèce accidentelle en Nouvelle-Zélande, Nouvelle-Calédonie et États fédérés de Micronésie.
 </t>
@@ -543,12 +557,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>synonymes
-Hirundo nigricans (protonyme), Cecropis nigricans.
-Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
+Hirundo nigricans (protonyme), Cecropis nigricans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hirondelle_des_arbres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirondelle_des_arbres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 Petrochelidon nigricans timoriensis Sharpe, 1885 ;
 Petrochelidon nigricans neglecta Mathews, 1912 ;
 Petrochelidon nigricans nigricans (Vieillot, 1817).</t>
